--- a/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_era_yyyy/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_era_yyyy/expected_result.xlsx
@@ -479,7 +479,7 @@
         <v>43465</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>320003.17</v>
+        <v>346021.01</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>43830</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>403909.59</v>
+        <v>340067.57</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         <v>44196</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>399283.57</v>
+        <v>406645.98</v>
       </c>
     </row>
     <row r="5">
@@ -514,7 +514,7 @@
         <v>44561</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>487846.87</v>
+        <v>271806.75</v>
       </c>
     </row>
     <row r="6">
@@ -523,7 +523,7 @@
         <v>44926</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>326368.93</v>
+        <v>426460.18</v>
       </c>
     </row>
     <row r="7">
@@ -534,7 +534,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr"/>
       <c r="C7" s="6" t="n">
-        <v>1937412.13</v>
+        <v>1791001.49</v>
       </c>
     </row>
   </sheetData>
